--- a/Tracking Sheet.xlsx
+++ b/Tracking Sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AOCv3\AOC-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F566CC0-638F-4177-A68D-0F4B3DB1DF7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181F804F-61BB-476A-B453-DD62A4BAA1FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -171,12 +171,6 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -188,12 +182,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="3">
     <dxf>
       <font>
         <color theme="7" tint="0.59996337778862885"/>
@@ -223,171 +223,6 @@
           <bgColor theme="2" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-9.9948118533890809E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-9.9948118533890809E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-9.9948118533890809E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-9.9948118533890809E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -668,7 +503,7 @@
   <dimension ref="A1:AF10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -681,43 +516,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="4"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
+      <c r="A1" s="2"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
       <c r="AC1" t="s">
         <v>2</v>
       </c>
-      <c r="AF1" s="13"/>
+      <c r="AF1" s="11"/>
     </row>
     <row r="2" spans="1:32" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="9"/>
-      <c r="B2" s="11"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="9"/>
       <c r="C2">
         <v>1</v>
       </c>
@@ -798,430 +633,430 @@
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B3">
         <v>2015</v>
       </c>
-      <c r="C3" s="4">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5">
-        <v>0</v>
-      </c>
-      <c r="I3" s="5">
-        <v>0</v>
-      </c>
-      <c r="J3" s="5">
-        <v>0</v>
-      </c>
-      <c r="K3" s="5">
-        <v>0</v>
-      </c>
-      <c r="L3" s="5">
-        <v>0</v>
-      </c>
-      <c r="M3" s="5">
-        <v>0</v>
-      </c>
-      <c r="N3" s="5">
-        <v>0</v>
-      </c>
-      <c r="O3" s="5">
-        <v>0</v>
-      </c>
-      <c r="P3" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="5">
-        <v>0</v>
-      </c>
-      <c r="R3" s="5">
-        <v>0</v>
-      </c>
-      <c r="S3" s="5">
-        <v>0</v>
-      </c>
-      <c r="T3" s="5">
-        <v>0</v>
-      </c>
-      <c r="U3" s="5">
-        <v>0</v>
-      </c>
-      <c r="V3" s="5">
-        <v>0</v>
-      </c>
-      <c r="W3" s="5">
-        <v>0</v>
-      </c>
-      <c r="X3" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="12">
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0</v>
+      </c>
+      <c r="P3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>0</v>
+      </c>
+      <c r="R3" s="3">
+        <v>0</v>
+      </c>
+      <c r="S3" s="3">
+        <v>0</v>
+      </c>
+      <c r="T3" s="3">
+        <v>0</v>
+      </c>
+      <c r="U3" s="3">
+        <v>0</v>
+      </c>
+      <c r="V3" s="3">
+        <v>0</v>
+      </c>
+      <c r="W3" s="3">
+        <v>0</v>
+      </c>
+      <c r="X3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="10">
         <f>SUM(C3:AA3)/50</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="2"/>
+      <c r="A4" s="13"/>
       <c r="B4">
         <v>2016</v>
       </c>
-      <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0</v>
-      </c>
-      <c r="J4" s="3">
-        <v>0</v>
-      </c>
-      <c r="K4" s="3">
-        <v>0</v>
-      </c>
-      <c r="L4" s="3">
-        <v>0</v>
-      </c>
-      <c r="M4" s="3">
-        <v>0</v>
-      </c>
-      <c r="N4" s="3">
-        <v>0</v>
-      </c>
-      <c r="O4" s="3">
-        <v>0</v>
-      </c>
-      <c r="P4" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>0</v>
-      </c>
-      <c r="R4" s="3">
-        <v>0</v>
-      </c>
-      <c r="S4" s="3">
-        <v>0</v>
-      </c>
-      <c r="T4" s="3">
-        <v>0</v>
-      </c>
-      <c r="U4" s="3">
-        <v>0</v>
-      </c>
-      <c r="V4" s="3">
-        <v>0</v>
-      </c>
-      <c r="W4" s="3">
-        <v>0</v>
-      </c>
-      <c r="X4" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="12">
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1">
+        <v>0</v>
+      </c>
+      <c r="X4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="10">
         <f t="shared" ref="AC4:AC7" si="0">SUM(C4:AA4)/50</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="2"/>
+      <c r="A5" s="13"/>
       <c r="B5">
         <v>2017</v>
       </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0</v>
-      </c>
-      <c r="K5" s="3">
-        <v>0</v>
-      </c>
-      <c r="L5" s="3">
-        <v>0</v>
-      </c>
-      <c r="M5" s="3">
-        <v>0</v>
-      </c>
-      <c r="N5" s="3">
-        <v>0</v>
-      </c>
-      <c r="O5" s="3">
-        <v>0</v>
-      </c>
-      <c r="P5" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>0</v>
-      </c>
-      <c r="R5" s="3">
-        <v>0</v>
-      </c>
-      <c r="S5" s="3">
-        <v>0</v>
-      </c>
-      <c r="T5" s="3">
-        <v>0</v>
-      </c>
-      <c r="U5" s="3">
-        <v>0</v>
-      </c>
-      <c r="V5" s="3">
-        <v>0</v>
-      </c>
-      <c r="W5" s="3">
-        <v>0</v>
-      </c>
-      <c r="X5" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="12">
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
+        <v>0</v>
+      </c>
+      <c r="X5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="2"/>
+      <c r="A6" s="13"/>
       <c r="B6">
         <v>2018</v>
       </c>
-      <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0</v>
-      </c>
-      <c r="L6" s="3">
-        <v>0</v>
-      </c>
-      <c r="M6" s="3">
-        <v>0</v>
-      </c>
-      <c r="N6" s="3">
-        <v>0</v>
-      </c>
-      <c r="O6" s="3">
-        <v>0</v>
-      </c>
-      <c r="P6" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>0</v>
-      </c>
-      <c r="R6" s="3">
-        <v>0</v>
-      </c>
-      <c r="S6" s="3">
-        <v>0</v>
-      </c>
-      <c r="T6" s="3">
-        <v>0</v>
-      </c>
-      <c r="U6" s="3">
-        <v>0</v>
-      </c>
-      <c r="V6" s="3">
-        <v>0</v>
-      </c>
-      <c r="W6" s="3">
-        <v>0</v>
-      </c>
-      <c r="X6" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="12">
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
+        <v>0</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0</v>
+      </c>
+      <c r="X6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="2"/>
+      <c r="A7" s="13"/>
       <c r="B7">
         <v>2019</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="7">
         <v>2</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="8">
         <v>2</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="8">
         <v>2</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="8">
         <v>2</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="8">
         <v>2</v>
       </c>
-      <c r="H7" s="10">
-        <v>0</v>
-      </c>
-      <c r="I7" s="10">
-        <v>0</v>
-      </c>
-      <c r="J7" s="10">
-        <v>0</v>
-      </c>
-      <c r="K7" s="10">
-        <v>0</v>
-      </c>
-      <c r="L7" s="10">
-        <v>0</v>
-      </c>
-      <c r="M7" s="10">
-        <v>0</v>
-      </c>
-      <c r="N7" s="10">
-        <v>0</v>
-      </c>
-      <c r="O7" s="10">
-        <v>0</v>
-      </c>
-      <c r="P7" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="10">
-        <v>0</v>
-      </c>
-      <c r="R7" s="10">
-        <v>0</v>
-      </c>
-      <c r="S7" s="10">
-        <v>0</v>
-      </c>
-      <c r="T7" s="10">
-        <v>0</v>
-      </c>
-      <c r="U7" s="10">
-        <v>0</v>
-      </c>
-      <c r="V7" s="10">
-        <v>0</v>
-      </c>
-      <c r="W7" s="10">
-        <v>0</v>
-      </c>
-      <c r="X7" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="12">
+      <c r="H7" s="8">
+        <v>2</v>
+      </c>
+      <c r="I7" s="8">
+        <v>2</v>
+      </c>
+      <c r="J7" s="8">
+        <v>2</v>
+      </c>
+      <c r="K7" s="8">
+        <v>0</v>
+      </c>
+      <c r="L7" s="8">
+        <v>0</v>
+      </c>
+      <c r="M7" s="8">
+        <v>0</v>
+      </c>
+      <c r="N7" s="8">
+        <v>0</v>
+      </c>
+      <c r="O7" s="8">
+        <v>0</v>
+      </c>
+      <c r="P7" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>0</v>
+      </c>
+      <c r="R7" s="8">
+        <v>0</v>
+      </c>
+      <c r="S7" s="8">
+        <v>0</v>
+      </c>
+      <c r="T7" s="8">
+        <v>0</v>
+      </c>
+      <c r="U7" s="8">
+        <v>0</v>
+      </c>
+      <c r="V7" s="8">
+        <v>0</v>
+      </c>
+      <c r="W7" s="8">
+        <v>0</v>
+      </c>
+      <c r="X7" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="10">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -1230,9 +1065,9 @@
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="AC10" s="12">
+      <c r="AC10" s="10">
         <f>AVERAGE(AC3:AC7)</f>
-        <v>0.04</v>
+        <v>6.4000000000000001E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1241,13 +1076,13 @@
     <mergeCell ref="A3:A7"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:AA7">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Tracking Sheet.xlsx
+++ b/Tracking Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AOCv3\AOC-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181F804F-61BB-476A-B453-DD62A4BAA1FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D58A814-AA8F-4939-8FB8-E1AEC2270A49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -503,7 +503,7 @@
   <dimension ref="A1:AF10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1004,10 +1004,10 @@
         <v>2</v>
       </c>
       <c r="K7" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L7" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M7" s="8">
         <v>0</v>
@@ -1056,7 +1056,7 @@
       </c>
       <c r="AC7" s="10">
         <f t="shared" si="0"/>
-        <v>0.32</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.55000000000000004">
@@ -1067,7 +1067,7 @@
     <row r="10" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="AC10" s="10">
         <f>AVERAGE(AC3:AC7)</f>
-        <v>6.4000000000000001E-2</v>
+        <v>0.08</v>
       </c>
     </row>
   </sheetData>
